--- a/biology/Zoologie/Dardanus_pedunculatus/Dardanus_pedunculatus.xlsx
+++ b/biology/Zoologie/Dardanus_pedunculatus/Dardanus_pedunculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard l'ermite à yeux verts
-Dardanus pedunculatus, communément nommé Bernard l'ermite à yeux verts[1], est une espèce de crabes marins de la famille des Diogenidae. Attention au risque de confusion car Dardanus pedunculatus partage le même nom vernaculaire avec Dardanus tinctor.
+Dardanus pedunculatus, communément nommé Bernard l'ermite à yeux verts, est une espèce de crabes marins de la famille des Diogenidae. Attention au risque de confusion car Dardanus pedunculatus partage le même nom vernaculaire avec Dardanus tinctor.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bernard l'ermite à yeux verts est présent dans les eaux tropicales de la région Indo-Pacifique, mer Rouge et archipel d'Hawaï inclus[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bernard l'ermite à yeux verts est présent dans les eaux tropicales de la région Indo-Pacifique, mer Rouge et archipel d'Hawaï inclus,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille varie de 6[4] à 10 cm au maximum[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille varie de 6 à 10 cm au maximum.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce Bernard l'ermite est capable de se protéger de son principal prédateur qu'est le poulpe en installant lui-même des anémones de mer très urticantes sur la surface de sa coquille qu'il conserve même quand il change de coquille. Il choisit exclusivement des anémones Calliactis polypus[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce Bernard l'ermite est capable de se protéger de son principal prédateur qu'est le poulpe en installant lui-même des anémones de mer très urticantes sur la surface de sa coquille qu'il conserve même quand il change de coquille. Il choisit exclusivement des anémones Calliactis polypus.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cancer pedunculatus Herbst, 1804 (transféré vers Pagurus par Olivier (1812))
